--- a/mcmaster_excel/Metric_Low-Profile_Ultra-Wide_Truss_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Metric_Low-Profile_Ultra-Wide_Truss_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,103 +434,81 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr"/>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>12.80</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>90015A511</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>$3.38</t>
-        </is>
-      </c>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
@@ -541,7 +519,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,12 +544,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>90015A512</t>
+          <t>90015A511</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>$3.38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -584,7 +562,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -609,12 +587,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>90015A513</t>
+          <t>90015A512</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -627,7 +605,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -652,12 +630,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90015A514</t>
+          <t>90015A513</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -670,7 +648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -695,12 +673,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>90015A515</t>
+          <t>90015A514</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -713,15 +691,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>90015A515</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
@@ -732,39 +734,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>12.80</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>90015A516</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
@@ -775,7 +753,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -800,12 +778,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>90015A517</t>
+          <t>90015A516</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -818,7 +796,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -843,12 +821,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>90015A518</t>
+          <t>90015A517</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -861,7 +839,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -886,12 +864,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>90015A519</t>
+          <t>90015A518</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -904,7 +882,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -929,12 +907,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>90015A521</t>
+          <t>90015A519</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -947,15 +925,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>90015A521</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
@@ -966,39 +968,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>12.80</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>90015A522</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
@@ -1009,7 +987,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1034,12 +1012,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>90015A523</t>
+          <t>90015A522</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1052,7 +1030,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1077,12 +1055,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>90015A524</t>
+          <t>90015A523</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1095,7 +1073,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1120,12 +1098,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>90015A525</t>
+          <t>90015A524</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1138,7 +1116,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1163,12 +1141,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>90015A526</t>
+          <t>90015A525</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1181,15 +1159,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>90015A526</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1200,39 +1202,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>19.20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>90015A527</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1243,7 +1221,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1268,12 +1246,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>90015A528</t>
+          <t>90015A527</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1286,7 +1264,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1311,12 +1289,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>90015A529</t>
+          <t>90015A528</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1329,7 +1307,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1354,12 +1332,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>90015A531</t>
+          <t>90015A529</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1372,7 +1350,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1397,16 +1375,59 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>90015A532</t>
+          <t>90015A531</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>90015A532</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
